--- a/vba/markdown-editor/preview.xlsx
+++ b/vba/markdown-editor/preview.xlsx
@@ -9,21 +9,8 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,25 +355,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:B8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F11" sqref="F11:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/vba/markdown-editor/preview.xlsx
+++ b/vba/markdown-editor/preview.xlsx
@@ -4,13 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="90" yWindow="315" windowWidth="15105" windowHeight="8655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,7 +362,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:R13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/vba/markdown-editor/preview.xlsx
+++ b/vba/markdown-editor/preview.xlsx
@@ -19,7 +19,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,6 +32,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -55,8 +62,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -362,10 +370,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vba/markdown-editor/preview.xlsx
+++ b/vba/markdown-editor/preview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="315" windowWidth="15105" windowHeight="8655"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="8625" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Hello World</t>
+  </si>
+  <si>
+    <t>Hello ExcelMarkdownEditor!!</t>
+  </si>
+  <si>
+    <t>・Hey</t>
+  </si>
+  <si>
+    <t>・abc</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>simple text</t>
+  </si>
+  <si>
+    <t>あいうえお かきくけこ</t>
+  </si>
+  <si>
+    <t>日本語テキストももちろん書けます</t>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>値段</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>いちご</t>
+  </si>
+  <si>
+    <t>みかん</t>
+  </si>
+  <si>
+    <t>りんご</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,16 +90,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -58,13 +135,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -77,6 +198,122 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="正方形/長方形 129"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="390525"/>
+          <a:ext cx="6350000" cy="872744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+            </a:rPr>
+            <a:t>public static void main(String… agrs) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+            </a:rPr>
+            <a:t>    System.out.println("Hey!!");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,19 +604,144 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:24" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="8"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/vba/markdown-editor/preview.xlsx
+++ b/vba/markdown-editor/preview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="0" windowWidth="8625" windowHeight="12315"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="9360" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,40 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Hello World</t>
-  </si>
-  <si>
-    <t>Hello ExcelMarkdownEditor!!</t>
-  </si>
-  <si>
-    <t>・Hey</t>
-  </si>
-  <si>
-    <t>・abc</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>foo</t>
-  </si>
-  <si>
-    <t>simple text</t>
-  </si>
-  <si>
-    <t>あいうえお かきくけこ</t>
-  </si>
-  <si>
-    <t>日本語テキストももちろん書けます</t>
-  </si>
-  <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>値段</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>数量</t>
   </si>
@@ -62,13 +29,79 @@
   </si>
   <si>
     <t>りんご</t>
+  </si>
+  <si>
+    <t>単価</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>コードブロック</t>
+  </si>
+  <si>
+    <t>テーブル</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Thank You!!</t>
+  </si>
+  <si>
+    <t>Excel Markdown Editor!!</t>
+  </si>
+  <si>
+    <t>見慣れた Excel で出力できます！</t>
+  </si>
+  <si>
+    <t>リスト</t>
+  </si>
+  <si>
+    <t>・one</t>
+  </si>
+  <si>
+    <t>・two</t>
+  </si>
+  <si>
+    <t>・three</t>
+  </si>
+  <si>
+    <t>使い慣れた Excel で Markdown を書き、</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>900</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +137,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -176,16 +216,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -206,24 +247,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>158369</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23241</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="正方形/長方形 129"/>
+        <xdr:cNvPr id="327" name="正方形/長方形 326"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="127000" y="390525"/>
-          <a:ext cx="6350000" cy="872744"/>
+          <a:off x="127000" y="2543175"/>
+          <a:ext cx="6350000" cy="1213866"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -273,7 +314,7 @@
               </a:solidFill>
               <a:latin typeface="Consolas"/>
             </a:rPr>
-            <a:t>public static void main(String… agrs) {</a:t>
+            <a:t>public class Main {</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -285,7 +326,31 @@
               </a:solidFill>
               <a:latin typeface="Consolas"/>
             </a:rPr>
-            <a:t>    System.out.println("Hey!!");</a:t>
+            <a:t>    public static void main(String[] args) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+            </a:rPr>
+            <a:t>        System.out.println("Hello World!!");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+            </a:rPr>
+            <a:t>    }</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -604,138 +669,235 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="5"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="8"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="8"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="8"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="8"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="5"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="8"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
